--- a/Excel/Libro1.xlsx
+++ b/Excel/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITRO\Documentos\Trabajos-Cadena\Evaluacion-Tic\Evaluacion-Tic\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4622D10-F8C3-4FF6-AB73-F6FE79B491E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346FFBF7-7E2F-49CD-B016-CC34177077D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BEBD77EC-276C-4BA2-965D-2D13E452D427}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,15 +219,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -246,6 +242,10 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -254,18 +254,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -302,7 +295,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A58A730C-9765-4DD5-ADE7-82AA1733B5D7}" name="Tabla1" displayName="Tabla1" ref="A2:D12" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A58A730C-9765-4DD5-ADE7-82AA1733B5D7}" name="Tabla1" displayName="Tabla1" ref="A2:D12" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A2:D12" xr:uid="{A58A730C-9765-4DD5-ADE7-82AA1733B5D7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D12">
     <sortCondition ref="B3:B12"/>
@@ -330,21 +323,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{742B8436-58CE-487E-9C19-7FA86737C0EE}" name="Tabla13" displayName="Tabla13" ref="A2:I12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{742B8436-58CE-487E-9C19-7FA86737C0EE}" name="Tabla13" displayName="Tabla13" ref="A2:I12" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A2:I12" xr:uid="{742B8436-58CE-487E-9C19-7FA86737C0EE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I12">
     <sortCondition ref="A3:A12"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EA69DCA5-3C81-4862-9DAE-862D0F4809A3}" name="N°" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{7197DC49-43AE-4CDA-8C7B-46FDACCD3B37}" name="Nombre Estudiante" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{CD4BAB75-00BA-497C-B7BE-E1A0091ED539}" name="Telefono Estudiante" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{4B9AE058-61DA-461A-8DCE-96CD9A507FC5}" name="Codigo Curso" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{EA69DCA5-3C81-4862-9DAE-862D0F4809A3}" name="N°" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7197DC49-43AE-4CDA-8C7B-46FDACCD3B37}" name="Nombre Estudiante" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CD4BAB75-00BA-497C-B7BE-E1A0091ED539}" name="Telefono Estudiante" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{4B9AE058-61DA-461A-8DCE-96CD9A507FC5}" name="Codigo Curso" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{4E3548F2-6051-4786-A957-E71F887FF095}" name="Nombre Curso" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{7B27DE95-4FCB-4D8A-AB8F-6A523C575B74}" name="Nota 1" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{7B27DE95-4FCB-4D8A-AB8F-6A523C575B74}" name="Nota 1" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{6D53953B-5A07-41D8-BE9C-4FDAEFE0F7F3}" name="Nota 2" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{43A87BB1-9F4E-4D8E-BFDF-BF24DBEAD593}" name="Nota 3" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{EC11E854-F0BC-4315-B9E1-A2D11BDFD2F7}" name="Promedio" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{EC11E854-F0BC-4315-B9E1-A2D11BDFD2F7}" name="Promedio" dataDxfId="2">
       <calculatedColumnFormula>AVERAGE(Tabla13[[#This Row],[Nota 1]:[Nota 3]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -684,10 +677,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -870,10 +863,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1013,7 +1006,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,17 +1016,17 @@
     <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="5"/>
+    <col min="6" max="6" width="11.5546875" style="4"/>
     <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1051,7 +1044,7 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1064,7 +1057,7 @@
         <v>29</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1084,23 +1077,23 @@
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
         <f>AVERAGE(Tabla13[[#This Row],[Nota 1]:[Nota 3]])</f>
-        <v>2</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="6">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5">
         <f>AVERAGE(Tabla13[Promedio])</f>
-        <v>3.1999999999999997</v>
+        <v>3.1333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1119,20 +1112,20 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
         <f>AVERAGE(Tabla13[[#This Row],[Nota 1]:[Nota 3]])</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="J4" s="4"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1150,20 +1143,20 @@
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="4">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
         <f>AVERAGE(Tabla13[[#This Row],[Nota 1]:[Nota 3]])</f>
-        <v>4</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1181,20 +1174,20 @@
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
         <f>AVERAGE(Tabla13[[#This Row],[Nota 1]:[Nota 3]])</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1212,20 +1205,20 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
         <f>AVERAGE(Tabla13[[#This Row],[Nota 1]:[Nota 3]])</f>
         <v>3</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1243,20 +1236,20 @@
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
         <f>AVERAGE(Tabla13[[#This Row],[Nota 1]:[Nota 3]])</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="J8" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1274,20 +1267,20 @@
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="4">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
         <f>AVERAGE(Tabla13[[#This Row],[Nota 1]:[Nota 3]])</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="J9" s="4"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1305,20 +1298,20 @@
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="4">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4">
-        <v>4</v>
-      </c>
-      <c r="H10" s="4">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
         <f>AVERAGE(Tabla13[[#This Row],[Nota 1]:[Nota 3]])</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1336,20 +1329,20 @@
       <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="4">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
         <f>AVERAGE(Tabla13[[#This Row],[Nota 1]:[Nota 3]])</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1367,20 +1360,20 @@
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="4">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
         <f>AVERAGE(Tabla13[[#This Row],[Nota 1]:[Nota 3]])</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="J12" s="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
@@ -1393,10 +1386,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3:I12">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
